--- a/文档终板/Team108-开发和测试过程数据统计对照表V1.0.xlsx
+++ b/文档终板/Team108-开发和测试过程数据统计对照表V1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\94808\Documents\GitHub\Team108\文档终板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA991EBC-1814-450D-89C4-FB2D5330D7F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1041544A-BCBE-4F57-95D0-BFBC275623EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -230,9 +230,6 @@
     <t>贡献度数据追踪</t>
   </si>
   <si>
-    <t>追踪到其他几个数据表所列出的统计数据</t>
-  </si>
-  <si>
     <t>任务统计表</t>
   </si>
   <si>
@@ -744,13 +741,17 @@
     <t>e75a257,e75a257,5729b27</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
+  <si>
+    <t>具体计算方法见同一文件夹下的贡献评价方法.docx。commit次数可见github上commit次数排名，负责功能可见任务统计表，测试可见测试统计表，文档贡献可见各个文档开头的分工说明以及修改历史。</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -882,7 +883,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -995,43 +996,6 @@
       <diagonal style="thin">
         <color auto="1"/>
       </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
@@ -1146,40 +1110,47 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1187,20 +1158,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1507,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1643,11 +1609,11 @@
       <c r="B10" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="D10" s="54" t="s">
-        <v>186</v>
+      <c r="C10" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>185</v>
       </c>
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
@@ -1669,11 +1635,11 @@
       <c r="B11" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="D11" s="54" t="s">
-        <v>187</v>
+      <c r="C11" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>186</v>
       </c>
       <c r="E11" s="34"/>
       <c r="F11" s="34"/>
@@ -1698,8 +1664,8 @@
       <c r="C12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="54" t="s">
-        <v>188</v>
+      <c r="D12" s="42" t="s">
+        <v>187</v>
       </c>
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
@@ -1724,8 +1690,8 @@
       <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="54" t="s">
-        <v>188</v>
+      <c r="D13" s="42" t="s">
+        <v>187</v>
       </c>
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
@@ -1748,10 +1714,10 @@
         <v>28</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E14" s="34"/>
       <c r="F14" s="34"/>
@@ -1774,10 +1740,10 @@
         <v>29</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E15" s="34"/>
       <c r="F15" s="34"/>
@@ -1800,10 +1766,10 @@
         <v>30</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="34"/>
@@ -1829,7 +1795,7 @@
         <v>33</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E17" s="34"/>
       <c r="F17" s="34"/>
@@ -1852,10 +1818,10 @@
         <v>34</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E18" s="34"/>
       <c r="F18" s="34"/>
@@ -1878,10 +1844,10 @@
         <v>35</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E19" s="34"/>
       <c r="F19" s="34"/>
@@ -1904,10 +1870,10 @@
         <v>36</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E20" s="34"/>
       <c r="F20" s="34"/>
@@ -1933,7 +1899,7 @@
         <v>38</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E21" s="34"/>
       <c r="F21" s="34"/>
@@ -2072,19 +2038,19 @@
     </row>
     <row r="29" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A29" s="29"/>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="41" t="s">
         <v>7</v>
       </c>
       <c r="G29" s="34"/>
@@ -2099,19 +2065,19 @@
       <c r="P29" s="34"/>
     </row>
     <row r="30" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="41" t="s">
         <v>16</v>
       </c>
       <c r="F30" s="30"/>
@@ -2127,7 +2093,7 @@
       <c r="P30" s="34"/>
     </row>
     <row r="31" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="41" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="40" t="s">
@@ -2136,14 +2102,14 @@
       <c r="C31" s="40">
         <v>0.24</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="41" t="s">
         <v>42</v>
       </c>
       <c r="E31" s="40">
         <v>0.25</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="30"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="52"/>
       <c r="H31" s="34"/>
       <c r="I31" s="34"/>
       <c r="J31" s="34"/>
@@ -2155,22 +2121,22 @@
       <c r="P31" s="34"/>
     </row>
     <row r="32" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="D32" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="41" t="s">
+      <c r="E32" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="42"/>
+      <c r="F32" s="51"/>
       <c r="G32" s="34"/>
       <c r="H32" s="34"/>
       <c r="I32" s="34"/>
@@ -2183,22 +2149,22 @@
       <c r="P32" s="34"/>
     </row>
     <row r="33" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="42">
+      <c r="B33" s="51">
         <v>1.5</v>
       </c>
-      <c r="C33" s="42">
+      <c r="C33" s="51">
         <v>1</v>
       </c>
-      <c r="D33" s="42">
+      <c r="D33" s="51">
         <v>1</v>
       </c>
-      <c r="E33" s="42">
+      <c r="E33" s="51">
         <v>0.5</v>
       </c>
-      <c r="F33" s="42">
+      <c r="F33" s="51">
         <f t="shared" ref="F33:F37" si="0">B33+C33+D33+E33</f>
         <v>4</v>
       </c>
@@ -2214,22 +2180,22 @@
       <c r="P33" s="34"/>
     </row>
     <row r="34" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="42">
+      <c r="B34" s="51">
         <v>1</v>
       </c>
-      <c r="C34" s="42">
+      <c r="C34" s="51">
         <v>0.5</v>
       </c>
-      <c r="D34" s="42">
+      <c r="D34" s="51">
         <v>1.5</v>
       </c>
-      <c r="E34" s="42">
+      <c r="E34" s="51">
         <v>1</v>
       </c>
-      <c r="F34" s="42">
+      <c r="F34" s="51">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2245,22 +2211,22 @@
       <c r="P34" s="34"/>
     </row>
     <row r="35" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="42">
+      <c r="B35" s="51">
         <v>1</v>
       </c>
-      <c r="C35" s="42">
+      <c r="C35" s="51">
         <v>0.5</v>
       </c>
-      <c r="D35" s="42">
+      <c r="D35" s="51">
         <v>1.5</v>
       </c>
-      <c r="E35" s="42">
+      <c r="E35" s="51">
         <v>1</v>
       </c>
-      <c r="F35" s="42">
+      <c r="F35" s="51">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2276,22 +2242,22 @@
       <c r="P35" s="34"/>
     </row>
     <row r="36" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="42">
+      <c r="B36" s="51">
         <v>1</v>
       </c>
-      <c r="C36" s="42">
+      <c r="C36" s="51">
         <v>0.5</v>
       </c>
-      <c r="D36" s="42">
+      <c r="D36" s="51">
         <v>1</v>
       </c>
-      <c r="E36" s="42">
+      <c r="E36" s="51">
         <v>1.5</v>
       </c>
-      <c r="F36" s="42">
+      <c r="F36" s="51">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2307,22 +2273,22 @@
       <c r="P36" s="34"/>
     </row>
     <row r="37" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="42">
+      <c r="B37" s="51">
         <v>1</v>
       </c>
-      <c r="C37" s="42">
+      <c r="C37" s="51">
         <v>1.5</v>
       </c>
-      <c r="D37" s="42">
+      <c r="D37" s="51">
         <v>0.5</v>
       </c>
-      <c r="E37" s="42">
+      <c r="E37" s="51">
         <v>1</v>
       </c>
-      <c r="F37" s="42">
+      <c r="F37" s="51">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2338,24 +2304,24 @@
       <c r="P37" s="34"/>
     </row>
     <row r="38" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="42"/>
-      <c r="B38" s="42">
+      <c r="A38" s="51"/>
+      <c r="B38" s="51">
         <f>B33+B34+B35+B36+B37</f>
         <v>5.5</v>
       </c>
-      <c r="C38" s="42">
+      <c r="C38" s="51">
         <f>C33+C34+C35+C36+C37</f>
         <v>4</v>
       </c>
-      <c r="D38" s="42">
+      <c r="D38" s="51">
         <f>D33+D34+D35+D36+D37</f>
         <v>5.5</v>
       </c>
-      <c r="E38" s="42">
+      <c r="E38" s="51">
         <f>E33+E34+E35+E36+E37</f>
         <v>5</v>
       </c>
-      <c r="F38" s="42"/>
+      <c r="F38" s="51"/>
       <c r="G38" s="34"/>
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
@@ -2368,24 +2334,24 @@
       <c r="P38" s="34"/>
     </row>
     <row r="39" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="42"/>
-      <c r="B39" s="42">
+      <c r="A39" s="51"/>
+      <c r="B39" s="51">
         <f>20+B38</f>
         <v>25.5</v>
       </c>
-      <c r="C39" s="42">
+      <c r="C39" s="51">
         <f>20+C38</f>
         <v>24</v>
       </c>
-      <c r="D39" s="42">
+      <c r="D39" s="51">
         <f>20+D38</f>
         <v>25.5</v>
       </c>
-      <c r="E39" s="42">
+      <c r="E39" s="51">
         <f>20+E38</f>
         <v>25</v>
       </c>
-      <c r="F39" s="42">
+      <c r="F39" s="51">
         <f>B39+C39+D39+E39</f>
         <v>100</v>
       </c>
@@ -2400,17 +2366,17 @@
       <c r="O39" s="34"/>
       <c r="P39" s="34"/>
     </row>
-    <row r="40" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:16" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="47"/>
+      <c r="B40" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
       <c r="G40" s="34"/>
       <c r="H40" s="34"/>
       <c r="I40" s="34"/>
@@ -5652,7 +5618,7 @@
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5660,8 +5626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D26" sqref="B26:D26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5673,160 +5639,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+      <c r="A1" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="48">
+        <v>1</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="50">
-        <v>1</v>
-      </c>
-      <c r="B3" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="24" t="s">
+      <c r="D3" s="45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="48"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D4" s="45"/>
+    </row>
+    <row r="5" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="48">
+        <v>2</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="48"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="45"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="48">
+        <v>3</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="48"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="45"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="48"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="45"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="48">
+        <v>4</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="48"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="45"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="48"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="45"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="48">
+        <v>5</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="45" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="50"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="53"/>
-    </row>
-    <row r="5" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="50">
-        <v>2</v>
-      </c>
-      <c r="B5" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="50"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="53"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="50">
-        <v>3</v>
-      </c>
-      <c r="B7" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="53" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="50"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="53"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="50"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="53"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="50">
-        <v>4</v>
-      </c>
-      <c r="B10" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="53" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="50"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="53"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="50"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="53"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="50">
-        <v>5</v>
-      </c>
-      <c r="B13" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="24" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="48"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="53" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="50"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="24" t="s">
+      <c r="D14" s="45"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="48"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="53"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="50"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="53"/>
+      <c r="D15" s="45"/>
     </row>
     <row r="16" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
@@ -5836,101 +5802,101 @@
         <v>29</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="50">
+      <c r="A17" s="48">
         <v>7</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="48" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="53" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="50"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="24" t="s">
+      <c r="D18" s="45"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="53"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="24" t="s">
+      <c r="D19" s="45"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="48">
+        <v>8</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="48"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="45"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="45"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="48">
+        <v>9</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="53"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="50">
-        <v>8</v>
-      </c>
-      <c r="B20" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="53" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="53"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="50"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="53"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="50">
-        <v>9</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="24" t="s">
+      <c r="D23" s="45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="48"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="53" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="50"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="24" t="s">
+      <c r="D24" s="45"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="53"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="53"/>
+      <c r="D25" s="45"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="25">
@@ -5940,88 +5906,91 @@
         <v>35</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="51">
+      <c r="A27" s="46">
         <v>11</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="46" t="s">
         <v>36</v>
       </c>
       <c r="C27" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="53" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="53"/>
+      <c r="D28" s="45"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="51"/>
-      <c r="B29" s="51"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="45"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="46">
+        <v>12</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="45"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="53"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="51">
-        <v>12</v>
-      </c>
-      <c r="B30" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="53" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="51"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="53"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="51"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="24" t="s">
+      <c r="D32" s="45"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="53"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="51"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="53"/>
+      <c r="D33" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D12"/>
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
@@ -6038,15 +6007,12 @@
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D27:D29"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6057,7 +6023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -6072,29 +6038,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
+      <c r="A1" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>79</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -6102,10 +6068,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>81</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>82</v>
       </c>
       <c r="D3" s="20">
         <v>600</v>
@@ -6119,10 +6085,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>83</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>84</v>
       </c>
       <c r="D4" s="19">
         <v>2</v>
@@ -6136,10 +6102,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>85</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>86</v>
       </c>
       <c r="D5" s="19">
         <v>20</v>
@@ -6156,7 +6122,7 @@
         <v>2606225</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" s="19">
         <v>120</v>
@@ -6170,10 +6136,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>88</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>89</v>
       </c>
       <c r="D7" s="19">
         <v>70</v>
@@ -6187,10 +6153,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>90</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>91</v>
       </c>
       <c r="D8" s="19">
         <v>112</v>
@@ -6204,10 +6170,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>92</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>93</v>
       </c>
       <c r="D9" s="19">
         <v>900</v>
@@ -6221,13 +6187,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="D10" s="19" t="s">
         <v>95</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>96</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>14</v>
@@ -6238,10 +6204,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>97</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>98</v>
       </c>
       <c r="D11" s="21">
         <v>275</v>
@@ -6255,10 +6221,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>99</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>100</v>
       </c>
       <c r="D12" s="21">
         <v>108</v>
@@ -6272,10 +6238,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>101</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>102</v>
       </c>
       <c r="D13" s="21">
         <v>25</v>
@@ -6289,10 +6255,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>103</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>104</v>
       </c>
       <c r="D14" s="21">
         <v>211</v>
@@ -6306,10 +6272,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>105</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>106</v>
       </c>
       <c r="D15" s="21">
         <v>59</v>
@@ -6323,10 +6289,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>107</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>108</v>
       </c>
       <c r="D16" s="21">
         <v>57</v>
@@ -6340,10 +6306,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>109</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>110</v>
       </c>
       <c r="D17" s="21">
         <v>498</v>
@@ -6357,10 +6323,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>111</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>112</v>
       </c>
       <c r="D18" s="21">
         <v>25</v>
@@ -6377,7 +6343,7 @@
         <v>4429898</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D19" s="21">
         <v>84</v>
@@ -6391,10 +6357,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>114</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>115</v>
       </c>
       <c r="D20" s="21">
         <v>727</v>
@@ -6408,10 +6374,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>116</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>117</v>
       </c>
       <c r="D21" s="21">
         <v>0</v>
@@ -6425,10 +6391,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>118</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>119</v>
       </c>
       <c r="D22" s="21">
         <v>0</v>
@@ -6442,10 +6408,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D23" s="21">
         <v>74</v>
@@ -6459,10 +6425,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D24" s="21">
         <v>45</v>
@@ -6476,10 +6442,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D25" s="21">
         <v>117</v>
@@ -6493,10 +6459,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D26" s="21">
         <v>122</v>
@@ -6510,10 +6476,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D27" s="21">
         <v>35</v>
@@ -6527,10 +6493,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="21" t="s">
         <v>125</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>126</v>
       </c>
       <c r="D28" s="21">
         <v>1050</v>
@@ -6544,10 +6510,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="21" t="s">
         <v>127</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>128</v>
       </c>
       <c r="D29" s="21">
         <v>3073</v>
@@ -6561,10 +6527,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="21" t="s">
         <v>129</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>130</v>
       </c>
       <c r="D30" s="21">
         <v>3864</v>
@@ -6578,10 +6544,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="21" t="s">
         <v>131</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>132</v>
       </c>
       <c r="D31" s="21">
         <v>1596</v>
@@ -6595,10 +6561,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="21" t="s">
         <v>133</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>134</v>
       </c>
       <c r="D32" s="21">
         <v>6153</v>
@@ -6615,7 +6581,7 @@
         <v>7186620</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D33" s="21">
         <v>414</v>
@@ -6629,10 +6595,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" s="21" t="s">
         <v>136</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>137</v>
       </c>
       <c r="D34" s="21">
         <v>3559</v>
@@ -6649,7 +6615,7 @@
         <v>31</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D35" s="21">
         <v>533</v>
@@ -6766,7 +6732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -6781,7 +6747,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A1" s="44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -6793,16 +6759,16 @@
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
@@ -6810,16 +6776,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.15">
@@ -6827,16 +6793,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>149</v>
-      </c>
       <c r="E4" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
@@ -6844,16 +6810,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>152</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="38.25" x14ac:dyDescent="0.15">
@@ -6861,16 +6827,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>156</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="38.25" x14ac:dyDescent="0.15">
@@ -6878,13 +6844,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>160</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>14</v>
@@ -6895,16 +6861,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>162</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
@@ -6912,16 +6878,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>166</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="38.25" x14ac:dyDescent="0.15">
@@ -6929,16 +6895,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>170</v>
-      </c>
       <c r="E10" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
@@ -6946,16 +6912,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>173</v>
-      </c>
       <c r="E11" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
@@ -6963,16 +6929,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>176</v>
-      </c>
       <c r="E12" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
@@ -6980,16 +6946,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
@@ -6997,13 +6963,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>182</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>183</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>17</v>
